--- a/Selenium/template.xlsx
+++ b/Selenium/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="12585" tabRatio="860" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="24240" windowHeight="12585" tabRatio="860" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Документы_sp_tab" sheetId="2" r:id="rId1"/>
@@ -22,8 +22,7 @@
     <sheet name="Заявка" sheetId="14" r:id="rId13"/>
     <sheet name="Карточки Согласования" sheetId="15" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -2286,7 +2285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24:M38"/>
     </sheetView>
   </sheetViews>
@@ -5149,8 +5148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
